--- a/Economie_Demographie/Rapport exploration des données - 2. Démographie et Économie.xlsx
+++ b/Economie_Demographie/Rapport exploration des données - 2. Démographie et Économie.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,11 +530,10 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Total: 62 705 lignes sur 14 fichiers</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
+          <t>Total: 81 919 lignes sur 14 fichiers</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
@@ -745,7 +744,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>306</v>
+        <v>20435</v>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
@@ -773,7 +772,7 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>350</v>
+        <v>19130</v>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
@@ -1355,7 +1354,7 @@
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>Nombre lignes dans la table: 1470</t>
+          <t>Nombre lignes dans la table: 40379</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1656,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>pib_france.csv (306 lignes)</t>
+          <t>pib_france.csv (20435 lignes)</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1753,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>chomage_series.csv (350 lignes)</t>
+          <t>chomage_series.csv (19130 lignes)</t>
         </is>
       </c>
     </row>
